--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/42/word_level_predictions_42.xlsx
@@ -2426,262 +2426,262 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Advanced</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="D39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="D40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>Image</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>Transmission</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Recovered</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_B</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2946,104 +2946,104 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="inlineStr">
+      <c r="D50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G128" s="2" t="b">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G129" s="2" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
         </is>
       </c>
       <c r="I138" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K138" s="2" t="b">
@@ -7661,11 +7661,11 @@
         </is>
       </c>
       <c r="I139" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K139" s="2" t="b">
@@ -7713,11 +7713,11 @@
         </is>
       </c>
       <c r="I140" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K140" s="2" t="b">
@@ -7765,11 +7765,11 @@
         </is>
       </c>
       <c r="I141" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K141" s="2" t="b">
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
@@ -7869,11 +7869,11 @@
         </is>
       </c>
       <c r="I143" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K143" s="2" t="b">
@@ -7921,11 +7921,11 @@
         </is>
       </c>
       <c r="I144" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K144" s="2" t="b">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="F145" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G145" s="2" t="b">
@@ -7973,11 +7973,11 @@
         </is>
       </c>
       <c r="I145" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K145" s="2" t="b">
@@ -10694,572 +10694,572 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="F200" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="G200" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
+      <c r="I200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
+      <c r="I201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B202" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D200" t="n">
-        <v>2</v>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" t="inlineStr">
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K200" t="b">
-        <v>1</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>18</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>3</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K201" t="b">
-        <v>1</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>18</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>4</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" t="b">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K202" t="b">
-        <v>1</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>18</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>5</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>18</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="I208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11318,158 +11318,158 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>19</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" s="2" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>19</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>19</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>2</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G235" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G236" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/42/word_level_predictions_42.xlsx
@@ -2426,262 +2426,262 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" t="n">
         <v>3</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Advanced</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" t="n">
         <v>3</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" t="n">
         <v>3</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Image</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" t="n">
         <v>2</v>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" t="n">
         <v>3</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Transmission</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" t="n">
         <v>3</v>
       </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>3</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Recovered</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" t="n">
         <v>4</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_B</t>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -2946,104 +2946,104 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>4</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G128" s="2" t="b">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G129" s="2" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
         </is>
       </c>
       <c r="I138" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K138" s="2" t="b">
@@ -7661,11 +7661,11 @@
         </is>
       </c>
       <c r="I139" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K139" s="2" t="b">
@@ -7713,11 +7713,11 @@
         </is>
       </c>
       <c r="I140" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K140" s="2" t="b">
@@ -7765,11 +7765,11 @@
         </is>
       </c>
       <c r="I141" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K141" s="2" t="b">
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
@@ -7869,11 +7869,11 @@
         </is>
       </c>
       <c r="I143" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K143" s="2" t="b">
@@ -7921,11 +7921,11 @@
         </is>
       </c>
       <c r="I144" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K144" s="2" t="b">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="F145" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G145" s="2" t="b">
@@ -7973,11 +7973,11 @@
         </is>
       </c>
       <c r="I145" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K145" s="2" t="b">
@@ -10694,572 +10694,572 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>18</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>18</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" t="n">
         <v>18</v>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" t="n">
         <v>2</v>
       </c>
-      <c r="E200" s="2" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F200" s="2" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G200" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" s="2" t="inlineStr">
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" s="2" t="inlineStr">
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K200" t="b">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" t="n">
         <v>18</v>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" t="n">
         <v>3</v>
       </c>
-      <c r="E201" s="2" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F201" s="2" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G201" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L201" s="2" t="inlineStr">
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" t="n">
         <v>18</v>
       </c>
-      <c r="B202" s="2" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" t="n">
         <v>4</v>
       </c>
-      <c r="E202" s="2" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F202" s="2" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G202" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L202" s="2" t="inlineStr">
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" t="n">
         <v>18</v>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C203" s="2" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" t="n">
         <v>5</v>
       </c>
-      <c r="E203" s="2" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F203" s="2" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G203" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" s="2" t="inlineStr">
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L203" s="2" t="inlineStr">
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>18</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>6</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>18</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>7</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>18</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" t="n">
         <v>8</v>
       </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" t="n">
         <v>18</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" t="n">
         <v>9</v>
       </c>
-      <c r="E207" s="2" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>18</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" t="n">
         <v>10</v>
       </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11318,158 +11318,158 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="inlineStr">
+      <c r="D210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="D211" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G235" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G236" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
